--- a/QLTRASUA/Quản lí hóa đơn.xlsx
+++ b/QLTRASUA/Quản lí hóa đơn.xlsx
@@ -264,7 +264,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="n" s="2">
-        <v>58000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>9</v>
